--- a/homework_workbook/Excel_Homework_Exercises.xlsx
+++ b/homework_workbook/Excel_Homework_Exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Maven Analytics\Excel Maven\Udemy\Course 1 - Formulas &amp; Functions\FINAL Resource Docs\Excel\Excel Homework Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASTER\Documents\Especializacion\Excel\craft_excel\homework_workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527FBB6-BD1C-476A-820C-C1914F18C3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B06A50-C077-4F64-B9CD-F2C7EEEE264C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="709" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -38,7 +38,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -780,13 +779,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="m/d;@"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="m/d;@"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -966,7 +965,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="72">
@@ -989,10 +988,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1023,10 +1022,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,36 +1079,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,13 +1117,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1133,7 +1132,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1146,17 +1145,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1170,9 +1169,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5388,17 +5387,19 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="2"/>
     <col min="5" max="6" width="16" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>126</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>42370</v>
       </c>
@@ -5431,10 +5432,16 @@
       <c r="D2" s="2">
         <v>18</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="56">
+        <f>C2/$B2</f>
+        <v>0.5273972602739726</v>
+      </c>
+      <c r="F2" s="56">
+        <f>D2/$B2</f>
+        <v>0.12328767123287671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>42370</v>
       </c>
@@ -5447,10 +5454,16 @@
       <c r="D3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="56">
+        <f t="shared" ref="E3:E26" si="0">C3/B3</f>
+        <v>0.42603550295857989</v>
+      </c>
+      <c r="F3" s="56">
+        <f>D3/$B3</f>
+        <v>8.8757396449704137E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>42370</v>
       </c>
@@ -5463,10 +5476,16 @@
       <c r="D4" s="2">
         <v>19</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="56">
+        <f t="shared" si="0"/>
+        <v>0.35678391959798994</v>
+      </c>
+      <c r="F4" s="56">
+        <f t="shared" ref="F3:F26" si="1">D4/$B4</f>
+        <v>9.5477386934673364E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>42371</v>
       </c>
@@ -5479,10 +5498,16 @@
       <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="56">
+        <f t="shared" si="0"/>
+        <v>0.23487544483985764</v>
+      </c>
+      <c r="F5" s="56">
+        <f t="shared" si="1"/>
+        <v>3.5587188612099648E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>42371</v>
       </c>
@@ -5495,10 +5520,16 @@
       <c r="D6" s="2">
         <v>19</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="56">
+        <f t="shared" si="0"/>
+        <v>0.19924812030075187</v>
+      </c>
+      <c r="F6" s="56">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>42371</v>
       </c>
@@ -5511,10 +5542,16 @@
       <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="56">
+        <f t="shared" si="0"/>
+        <v>0.30324909747292417</v>
+      </c>
+      <c r="F7" s="56">
+        <f t="shared" si="1"/>
+        <v>5.4151624548736461E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>42372</v>
       </c>
@@ -5527,10 +5564,16 @@
       <c r="D8" s="2">
         <v>15</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="56">
+        <f t="shared" si="0"/>
+        <v>0.50344827586206897</v>
+      </c>
+      <c r="F8" s="56">
+        <f t="shared" si="1"/>
+        <v>0.10344827586206896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>42372</v>
       </c>
@@ -5543,10 +5586,16 @@
       <c r="D9" s="2">
         <v>12</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="56">
+        <f t="shared" si="0"/>
+        <v>0.30396475770925108</v>
+      </c>
+      <c r="F9" s="56">
+        <f t="shared" si="1"/>
+        <v>5.2863436123348019E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>42372</v>
       </c>
@@ -5559,10 +5608,16 @@
       <c r="D10" s="2">
         <v>16</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="56">
+        <f t="shared" si="0"/>
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="F10" s="56">
+        <f t="shared" si="1"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>42373</v>
       </c>
@@ -5575,10 +5630,16 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="56" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>42374</v>
       </c>
@@ -5591,10 +5652,16 @@
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="56">
+        <f t="shared" si="0"/>
+        <v>0.30991735537190085</v>
+      </c>
+      <c r="F12" s="56">
+        <f t="shared" si="1"/>
+        <v>4.1322314049586778E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>42374</v>
       </c>
@@ -5607,10 +5674,16 @@
       <c r="D13" s="2">
         <v>16</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="56">
+        <f t="shared" si="0"/>
+        <v>0.34883720930232559</v>
+      </c>
+      <c r="F13" s="56">
+        <f t="shared" si="1"/>
+        <v>7.441860465116279E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>42374</v>
       </c>
@@ -5623,10 +5696,16 @@
       <c r="D14" s="2">
         <v>16</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="56">
+        <f t="shared" si="0"/>
+        <v>0.33606557377049179</v>
+      </c>
+      <c r="F14" s="56">
+        <f t="shared" si="1"/>
+        <v>6.5573770491803282E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>42374</v>
       </c>
@@ -5639,10 +5718,16 @@
       <c r="D15" s="2">
         <v>13</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="56">
+        <f t="shared" si="0"/>
+        <v>0.39664804469273746</v>
+      </c>
+      <c r="F15" s="56">
+        <f t="shared" si="1"/>
+        <v>7.2625698324022353E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>42374</v>
       </c>
@@ -5655,10 +5740,16 @@
       <c r="D16" s="2">
         <v>14</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="56">
+        <f t="shared" si="0"/>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="F16" s="56">
+        <f t="shared" si="1"/>
+        <v>5.0724637681159424E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>42375</v>
       </c>
@@ -5671,10 +5762,16 @@
       <c r="D17" s="2">
         <v>20</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="56">
+        <f t="shared" si="0"/>
+        <v>0.61417322834645671</v>
+      </c>
+      <c r="F17" s="56">
+        <f t="shared" si="1"/>
+        <v>0.15748031496062992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>42375</v>
       </c>
@@ -5687,10 +5784,16 @@
       <c r="D18" s="2">
         <v>18</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="56">
+        <f t="shared" si="0"/>
+        <v>0.2756183745583039</v>
+      </c>
+      <c r="F18" s="56">
+        <f t="shared" si="1"/>
+        <v>6.3604240282685506E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>42375</v>
       </c>
@@ -5703,10 +5806,16 @@
       <c r="D19" s="2">
         <v>20</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="56">
+        <f t="shared" si="0"/>
+        <v>0.60317460317460314</v>
+      </c>
+      <c r="F19" s="56">
+        <f t="shared" si="1"/>
+        <v>0.15873015873015872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>42376</v>
       </c>
@@ -5719,10 +5828,16 @@
       <c r="D20" s="2">
         <v>19</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="56">
+        <f t="shared" si="0"/>
+        <v>0.30916030534351147</v>
+      </c>
+      <c r="F20" s="56">
+        <f t="shared" si="1"/>
+        <v>7.2519083969465645E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>42376</v>
       </c>
@@ -5735,10 +5850,16 @@
       <c r="D21" s="2">
         <v>14</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="56">
+        <f t="shared" si="0"/>
+        <v>0.28222996515679444</v>
+      </c>
+      <c r="F21" s="56">
+        <f t="shared" si="1"/>
+        <v>4.878048780487805E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>42376</v>
       </c>
@@ -5751,10 +5872,16 @@
       <c r="D22" s="2">
         <v>14</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="56">
+        <f t="shared" si="0"/>
+        <v>0.30483271375464682</v>
+      </c>
+      <c r="F22" s="56">
+        <f t="shared" si="1"/>
+        <v>5.204460966542751E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>42377</v>
       </c>
@@ -5767,10 +5894,16 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="56">
+        <f t="shared" si="0"/>
+        <v>0.19852941176470587</v>
+      </c>
+      <c r="F23" s="56">
+        <f t="shared" si="1"/>
+        <v>3.6764705882352942E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>42377</v>
       </c>
@@ -5783,10 +5916,16 @@
       <c r="D24" s="2">
         <v>11</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="56">
+        <f t="shared" si="0"/>
+        <v>0.33823529411764708</v>
+      </c>
+      <c r="F24" s="56">
+        <f t="shared" si="1"/>
+        <v>5.3921568627450983E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>42377</v>
       </c>
@@ -5799,10 +5938,16 @@
       <c r="D25" s="2">
         <v>20</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="56">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="F25" s="56">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>42377</v>
       </c>
@@ -5815,13 +5960,19 @@
       <c r="D26" s="2">
         <v>19</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="56">
+        <f t="shared" si="0"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="F26" s="56">
+        <f t="shared" si="1"/>
+        <v>7.2796934865900387E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
     </row>
   </sheetData>
@@ -5839,19 +5990,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
@@ -5859,19 +6010,19 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C3" s="50"/>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C4" s="51"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>138</v>
       </c>
@@ -5891,7 +6042,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -5899,7 +6050,7 @@
       <c r="F7" s="52"/>
       <c r="G7" s="52"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -5908,76 +6059,76 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="66"/>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C11" s="50"/>
     </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30" t="s">
         <v>144</v>
       </c>
       <c r="C12" s="53"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>145</v>
       </c>
       <c r="C14" s="50"/>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>146</v>
       </c>
       <c r="C15" s="50"/>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="50"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="31">
         <v>42005</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="31"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="31"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="31"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="31"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
     </row>
   </sheetData>
@@ -5995,17 +6146,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="43" customWidth="1"/>
-    <col min="4" max="5" width="14.88671875" style="43" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="43" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="43" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="65" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>126</v>
       </c>
@@ -6028,7 +6179,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>41640</v>
       </c>
@@ -6053,7 +6204,7 @@
         <v>0.41492265696087355</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>41671</v>
       </c>
@@ -6078,7 +6229,7 @@
         <v>0.17524916943521596</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>41699</v>
       </c>
@@ -6104,7 +6255,7 @@
         <v>0.50411522633744854</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>41730</v>
       </c>
@@ -6130,7 +6281,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>41760</v>
       </c>
@@ -6156,7 +6307,7 @@
         <v>0.43443132380360472</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>41791</v>
       </c>
@@ -6182,7 +6333,7 @@
         <v>0.39156626506024095</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>41821</v>
       </c>
@@ -6208,7 +6359,7 @@
         <v>0.57631444614599281</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>41852</v>
       </c>
@@ -6234,7 +6385,7 @@
         <v>0.51498929336188437</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>41883</v>
       </c>
@@ -6260,7 +6411,7 @@
         <v>0.47848537005163511</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>41913</v>
       </c>
@@ -6286,7 +6437,7 @@
         <v>0.3377808988764045</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>41944</v>
       </c>
@@ -6312,7 +6463,7 @@
         <v>0.34983766233766234</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>41974</v>
       </c>
@@ -6338,7 +6489,7 @@
         <v>0.54775604142692746</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>42005</v>
       </c>
@@ -6364,7 +6515,7 @@
         <v>0.5993031358885017</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>42036</v>
       </c>
@@ -6390,7 +6541,7 @@
         <v>0.59571045576407511</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>42064</v>
       </c>
@@ -6416,7 +6567,7 @@
         <v>0.51458670988654787</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>42095</v>
       </c>
@@ -6442,7 +6593,7 @@
         <v>0.40393151553582751</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>42125</v>
       </c>
@@ -6468,7 +6619,7 @@
         <v>0.51891074130105896</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>42156</v>
       </c>
@@ -6494,7 +6645,7 @@
         <v>0.57448377581120946</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>42186</v>
       </c>
@@ -6519,7 +6670,7 @@
         <v>0.47118463180362863</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>42217</v>
       </c>
@@ -6545,7 +6696,7 @@
         <v>0.60243407707910746</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>42248</v>
       </c>
@@ -6570,7 +6721,7 @@
         <v>0.36644364384971695</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>42278</v>
       </c>
@@ -6596,7 +6747,7 @@
         <v>0.54501385041551242</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>42309</v>
       </c>
@@ -6622,7 +6773,7 @@
         <v>0.4105827193569993</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>42339</v>
       </c>
@@ -6661,28 +6812,28 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.28515625" customWidth="1"/>
     <col min="16" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
@@ -6714,7 +6865,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>211</v>
       </c>
@@ -6740,7 +6891,7 @@
       </c>
       <c r="N2" s="66"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>213</v>
       </c>
@@ -6762,7 +6913,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>214</v>
       </c>
@@ -6790,7 +6941,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>215</v>
       </c>
@@ -6814,7 +6965,7 @@
       <c r="M5" s="58"/>
       <c r="N5" s="54"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>216</v>
       </c>
@@ -6838,7 +6989,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>159</v>
       </c>
@@ -6860,7 +7011,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>218</v>
       </c>
@@ -6888,7 +7039,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>219</v>
       </c>
@@ -6910,7 +7061,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>220</v>
       </c>
@@ -6947,7 +7098,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>221</v>
       </c>
@@ -6974,7 +7125,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>222</v>
       </c>
@@ -7001,7 +7152,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>224</v>
       </c>
@@ -7028,7 +7179,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>225</v>
       </c>
@@ -7055,7 +7206,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>226</v>
       </c>
@@ -7077,7 +7228,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>227</v>
       </c>
@@ -7099,7 +7250,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M17" s="69" t="s">
         <v>207</v>
       </c>
@@ -7107,15 +7258,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M18" s="58"/>
       <c r="N18" s="42"/>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M19" s="2"/>
       <c r="N19" s="42"/>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M20" s="2"/>
       <c r="N20" s="42"/>
     </row>
@@ -7138,19 +7289,21 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.88671875" style="37" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="37" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="37" customWidth="1"/>
     <col min="4" max="4" width="14" style="37" customWidth="1"/>
     <col min="5" max="5" width="12" style="37" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>152</v>
       </c>
@@ -7173,7 +7326,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>156</v>
       </c>
@@ -7183,12 +7336,24 @@
       <c r="C2" s="37">
         <v>90</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2" s="55" t="str">
+        <f>IF(C2&gt;=60,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E2" s="55" t="str">
+        <f>IF(C2&gt;=90,"A",IF(C2&gt;=80,"B",(IF(C2&gt;=70,"C",IF(C2&gt;=60,"D","F")))))</f>
+        <v>A</v>
+      </c>
+      <c r="F2" s="55" t="str">
+        <f>IF(OR(C2&gt;90,C2&lt;60),"OUTLIER","AVG")</f>
+        <v>AVG</v>
+      </c>
+      <c r="G2" s="55" t="str">
+        <f>IF(C2&gt;95,IF(B2="M","Male achiever","Female achiever"),"None")</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>159</v>
       </c>
@@ -7198,12 +7363,24 @@
       <c r="C3" s="37">
         <v>80</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3" s="55" t="str">
+        <f t="shared" ref="D3:D16" si="0">IF(C3&gt;=60,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" s="55" t="str">
+        <f t="shared" ref="E3:E16" si="1">IF(C3&gt;=90,"A",IF(C3&gt;=80,"B",(IF(C3&gt;=70,"C",IF(C3&gt;=60,"D","F")))))</f>
+        <v>B</v>
+      </c>
+      <c r="F3" s="55" t="str">
+        <f t="shared" ref="F3:F16" si="2">IF(OR(C3&gt;90,C3&lt;60),"OUTLIER","AVG")</f>
+        <v>AVG</v>
+      </c>
+      <c r="G3" s="55" t="str">
+        <f t="shared" ref="G3:G16" si="3">IF(C3&gt;95,IF(B3="M","Male achiever","Female achiever"),"None")</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>160</v>
       </c>
@@ -7213,12 +7390,24 @@
       <c r="C4" s="37">
         <v>96</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="F4" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G4" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Female achiever</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>161</v>
       </c>
@@ -7228,12 +7417,24 @@
       <c r="C5" s="37">
         <v>72</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="F5" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G5" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>162</v>
       </c>
@@ -7243,12 +7444,24 @@
       <c r="C6" s="37">
         <v>69</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="F6" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G6" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>163</v>
       </c>
@@ -7258,12 +7471,24 @@
       <c r="C7" s="37">
         <v>52</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E7" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="F7" s="55" t="str">
+        <f>IF(OR(C7&gt;90,C7&lt;60),"OUTLIER","AVG")</f>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G7" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>164</v>
       </c>
@@ -7273,12 +7498,24 @@
       <c r="C8" s="37">
         <v>99</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="F8" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G8" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Male achiever</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>165</v>
       </c>
@@ -7288,12 +7525,24 @@
       <c r="C9" s="37">
         <v>82</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="F9" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G9" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>166</v>
       </c>
@@ -7303,12 +7552,24 @@
       <c r="C10" s="37">
         <v>67</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="F10" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G10" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>167</v>
       </c>
@@ -7318,12 +7579,24 @@
       <c r="C11" s="37">
         <v>90</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="F11" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G11" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>168</v>
       </c>
@@ -7333,12 +7606,24 @@
       <c r="C12" s="37">
         <v>83</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="F12" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G12" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>169</v>
       </c>
@@ -7348,12 +7633,24 @@
       <c r="C13" s="37">
         <v>89</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="F13" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G13" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>170</v>
       </c>
@@ -7363,12 +7660,24 @@
       <c r="C14" s="37">
         <v>60</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="F14" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G14" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>171</v>
       </c>
@@ -7378,12 +7687,24 @@
       <c r="C15" s="37">
         <v>63</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="F15" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G15" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>172</v>
       </c>
@@ -7393,10 +7714,22 @@
       <c r="C16" s="37">
         <v>59</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
+      <c r="D16" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E16" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="F16" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G16" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7413,23 +7746,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>112</v>
       </c>
@@ -7449,7 +7782,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
@@ -7476,7 +7809,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>116</v>
       </c>
@@ -7498,7 +7831,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>116</v>
       </c>
@@ -7521,7 +7854,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>116</v>
       </c>
@@ -7539,7 +7872,7 @@
       </c>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>116</v>
       </c>
@@ -7556,7 +7889,7 @@
         <v>25650</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>116</v>
       </c>
@@ -7582,7 +7915,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>116</v>
       </c>
@@ -7605,7 +7938,7 @@
       <c r="I8" s="59"/>
       <c r="J8" s="48"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -7628,7 +7961,7 @@
       <c r="I9" s="59"/>
       <c r="J9" s="48"/>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>116</v>
       </c>
@@ -7651,7 +7984,7 @@
       <c r="I10" s="59"/>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
@@ -7668,7 +8001,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>118</v>
       </c>
@@ -7685,7 +8018,7 @@
         <v>5537</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>118</v>
       </c>
@@ -7702,7 +8035,7 @@
         <v>21390</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>118</v>
       </c>
@@ -7719,7 +8052,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>118</v>
       </c>
@@ -7736,7 +8069,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
@@ -7753,7 +8086,7 @@
         <v>17850</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>118</v>
       </c>
@@ -7770,7 +8103,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>118</v>
       </c>
@@ -7787,7 +8120,7 @@
         <v>17907</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>118</v>
       </c>
@@ -7804,7 +8137,7 @@
         <v>12584</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>118</v>
       </c>
@@ -7821,7 +8154,7 @@
         <v>9282</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>119</v>
       </c>
@@ -7838,7 +8171,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>119</v>
       </c>
@@ -7855,7 +8188,7 @@
         <v>14484</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>119</v>
       </c>
@@ -7872,7 +8205,7 @@
         <v>11592</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>119</v>
       </c>
@@ -7889,7 +8222,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>119</v>
       </c>
@@ -7906,7 +8239,7 @@
         <v>16269</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>119</v>
       </c>
@@ -7923,7 +8256,7 @@
         <v>13524</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>119</v>
       </c>
@@ -7940,7 +8273,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>119</v>
       </c>
@@ -7957,7 +8290,7 @@
         <v>22780</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>119</v>
       </c>
@@ -7974,7 +8307,7 @@
         <v>20160</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>119</v>
       </c>
@@ -7991,7 +8324,7 @@
         <v>14070</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
@@ -8008,7 +8341,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>119</v>
       </c>
@@ -8025,7 +8358,7 @@
         <v>14076</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>119</v>
       </c>
@@ -8042,7 +8375,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>119</v>
       </c>
@@ -8059,7 +8392,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>119</v>
       </c>
@@ -8076,7 +8409,7 @@
         <v>5969</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -8093,7 +8426,7 @@
         <v>9384</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>119</v>
       </c>
@@ -8110,7 +8443,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
@@ -8127,7 +8460,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>121</v>
       </c>
@@ -8144,7 +8477,7 @@
         <v>4865</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -8161,7 +8494,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
@@ -8178,7 +8511,7 @@
         <v>22860</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
@@ -8195,7 +8528,7 @@
         <v>25137</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>121</v>
       </c>
@@ -8212,7 +8545,7 @@
         <v>9752</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>121</v>
       </c>
@@ -8229,7 +8562,7 @@
         <v>14136</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>121</v>
       </c>
@@ -8246,7 +8579,7 @@
         <v>10098</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>121</v>
       </c>
@@ -8263,7 +8596,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>121</v>
       </c>
@@ -8280,7 +8613,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>121</v>
       </c>
@@ -8297,7 +8630,7 @@
         <v>10152</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>121</v>
       </c>
@@ -8314,7 +8647,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>121</v>
       </c>
@@ -8331,7 +8664,7 @@
         <v>16302</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>121</v>
       </c>
@@ -8348,7 +8681,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>121</v>
       </c>
@@ -8365,7 +8698,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -8382,7 +8715,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>121</v>
       </c>
@@ -8399,7 +8732,7 @@
         <v>12276</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>121</v>
       </c>
@@ -8416,7 +8749,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>121</v>
       </c>
@@ -8433,7 +8766,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -8450,7 +8783,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>121</v>
       </c>
@@ -8467,7 +8800,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>121</v>
       </c>
@@ -8484,7 +8817,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>121</v>
       </c>
@@ -8501,7 +8834,7 @@
         <v>8968</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
@@ -8518,7 +8851,7 @@
         <v>5418</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
@@ -8535,7 +8868,7 @@
         <v>7194</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>121</v>
       </c>
@@ -8552,7 +8885,7 @@
         <v>8468</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>121</v>
       </c>
@@ -8569,7 +8902,7 @@
         <v>8010</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>121</v>
       </c>
@@ -8586,7 +8919,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>121</v>
       </c>
@@ -8603,7 +8936,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>121</v>
       </c>
@@ -8620,7 +8953,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>121</v>
       </c>
@@ -8637,7 +8970,7 @@
         <v>6270</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>121</v>
       </c>
@@ -8654,7 +8987,7 @@
         <v>6350</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>121</v>
       </c>
@@ -8694,18 +9027,20 @@
   </sheetPr>
   <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="6" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="15" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8725,7 +9060,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8741,7 +9076,7 @@
       <c r="E2" s="57"/>
       <c r="F2" s="54"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -8757,7 +9092,7 @@
       <c r="E3" s="57"/>
       <c r="F3" s="54"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -8773,7 +9108,7 @@
       <c r="E4" s="57"/>
       <c r="F4" s="54"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -8789,7 +9124,7 @@
       <c r="E5" s="57"/>
       <c r="F5" s="54"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -8805,7 +9140,7 @@
       <c r="E6" s="57"/>
       <c r="F6" s="54"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -8821,7 +9156,7 @@
       <c r="E7" s="57"/>
       <c r="F7" s="54"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -8837,7 +9172,7 @@
       <c r="E8" s="57"/>
       <c r="F8" s="54"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -8853,7 +9188,7 @@
       <c r="E9" s="57"/>
       <c r="F9" s="54"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -8869,7 +9204,7 @@
       <c r="E10" s="57"/>
       <c r="F10" s="54"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -8885,7 +9220,7 @@
       <c r="E11" s="57"/>
       <c r="F11" s="54"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -8901,7 +9236,7 @@
       <c r="E12" s="57"/>
       <c r="F12" s="54"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -8917,7 +9252,7 @@
       <c r="E13" s="57"/>
       <c r="F13" s="54"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -8933,7 +9268,7 @@
       <c r="E14" s="57"/>
       <c r="F14" s="54"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -8949,7 +9284,7 @@
       <c r="E15" s="57"/>
       <c r="F15" s="54"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -8965,7 +9300,7 @@
       <c r="E16" s="57"/>
       <c r="F16" s="54"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -8981,7 +9316,7 @@
       <c r="E17" s="57"/>
       <c r="F17" s="54"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -8997,7 +9332,7 @@
       <c r="E18" s="57"/>
       <c r="F18" s="54"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -9013,7 +9348,7 @@
       <c r="E19" s="57"/>
       <c r="F19" s="54"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -9029,7 +9364,7 @@
       <c r="E20" s="57"/>
       <c r="F20" s="54"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -9045,7 +9380,7 @@
       <c r="E21" s="57"/>
       <c r="F21" s="54"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -9061,7 +9396,7 @@
       <c r="E22" s="57"/>
       <c r="F22" s="54"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -9077,7 +9412,7 @@
       <c r="E23" s="57"/>
       <c r="F23" s="54"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -9093,7 +9428,7 @@
       <c r="E24" s="57"/>
       <c r="F24" s="54"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -9109,7 +9444,7 @@
       <c r="E25" s="57"/>
       <c r="F25" s="54"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -9125,7 +9460,7 @@
       <c r="E26" s="57"/>
       <c r="F26" s="54"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -9141,7 +9476,7 @@
       <c r="E27" s="57"/>
       <c r="F27" s="54"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -9157,7 +9492,7 @@
       <c r="E28" s="57"/>
       <c r="F28" s="54"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -9173,7 +9508,7 @@
       <c r="E29" s="57"/>
       <c r="F29" s="54"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -9189,7 +9524,7 @@
       <c r="E30" s="57"/>
       <c r="F30" s="54"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -9205,7 +9540,7 @@
       <c r="E31" s="57"/>
       <c r="F31" s="54"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -9221,7 +9556,7 @@
       <c r="E32" s="57"/>
       <c r="F32" s="54"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -9237,7 +9572,7 @@
       <c r="E33" s="57"/>
       <c r="F33" s="54"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -9253,7 +9588,7 @@
       <c r="E34" s="57"/>
       <c r="F34" s="54"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -9269,7 +9604,7 @@
       <c r="E35" s="57"/>
       <c r="F35" s="54"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -9285,7 +9620,7 @@
       <c r="E36" s="57"/>
       <c r="F36" s="54"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -9301,7 +9636,7 @@
       <c r="E37" s="57"/>
       <c r="F37" s="54"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -9317,7 +9652,7 @@
       <c r="E38" s="57"/>
       <c r="F38" s="54"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -9333,7 +9668,7 @@
       <c r="E39" s="57"/>
       <c r="F39" s="54"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -9349,7 +9684,7 @@
       <c r="E40" s="57"/>
       <c r="F40" s="54"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -9365,7 +9700,7 @@
       <c r="E41" s="57"/>
       <c r="F41" s="54"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -9381,7 +9716,7 @@
       <c r="E42" s="57"/>
       <c r="F42" s="54"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -9397,7 +9732,7 @@
       <c r="E43" s="57"/>
       <c r="F43" s="54"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -9413,7 +9748,7 @@
       <c r="E44" s="57"/>
       <c r="F44" s="54"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -9429,7 +9764,7 @@
       <c r="E45" s="57"/>
       <c r="F45" s="54"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -9445,7 +9780,7 @@
       <c r="E46" s="57"/>
       <c r="F46" s="54"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -9461,7 +9796,7 @@
       <c r="E47" s="57"/>
       <c r="F47" s="54"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -9477,7 +9812,7 @@
       <c r="E48" s="57"/>
       <c r="F48" s="54"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -9493,7 +9828,7 @@
       <c r="E49" s="57"/>
       <c r="F49" s="54"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -9509,7 +9844,7 @@
       <c r="E50" s="57"/>
       <c r="F50" s="54"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -9525,7 +9860,7 @@
       <c r="E51" s="57"/>
       <c r="F51" s="54"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -9541,7 +9876,7 @@
       <c r="E52" s="57"/>
       <c r="F52" s="54"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -9557,7 +9892,7 @@
       <c r="E53" s="57"/>
       <c r="F53" s="54"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -9573,7 +9908,7 @@
       <c r="E54" s="57"/>
       <c r="F54" s="54"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
@@ -9589,7 +9924,7 @@
       <c r="E55" s="57"/>
       <c r="F55" s="54"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
@@ -9605,7 +9940,7 @@
       <c r="E56" s="57"/>
       <c r="F56" s="54"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
@@ -9621,7 +9956,7 @@
       <c r="E57" s="57"/>
       <c r="F57" s="54"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -9637,7 +9972,7 @@
       <c r="E58" s="57"/>
       <c r="F58" s="54"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>10</v>
       </c>
@@ -9653,7 +9988,7 @@
       <c r="E59" s="57"/>
       <c r="F59" s="54"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>11</v>
       </c>
@@ -9669,7 +10004,7 @@
       <c r="E60" s="57"/>
       <c r="F60" s="54"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>12</v>
       </c>
@@ -9685,7 +10020,7 @@
       <c r="E61" s="57"/>
       <c r="F61" s="54"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>13</v>
       </c>
@@ -9701,7 +10036,7 @@
       <c r="E62" s="57"/>
       <c r="F62" s="54"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>14</v>
       </c>
@@ -9717,7 +10052,7 @@
       <c r="E63" s="57"/>
       <c r="F63" s="54"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>15</v>
       </c>
@@ -9733,7 +10068,7 @@
       <c r="E64" s="57"/>
       <c r="F64" s="54"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
@@ -9749,7 +10084,7 @@
       <c r="E65" s="57"/>
       <c r="F65" s="54"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>17</v>
       </c>
@@ -9765,7 +10100,7 @@
       <c r="E66" s="57"/>
       <c r="F66" s="54"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>18</v>
       </c>
@@ -9781,7 +10116,7 @@
       <c r="E67" s="57"/>
       <c r="F67" s="54"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>19</v>
       </c>
@@ -9797,7 +10132,7 @@
       <c r="E68" s="57"/>
       <c r="F68" s="54"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>20</v>
       </c>
@@ -9813,7 +10148,7 @@
       <c r="E69" s="57"/>
       <c r="F69" s="54"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
@@ -9829,7 +10164,7 @@
       <c r="E70" s="57"/>
       <c r="F70" s="54"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>22</v>
       </c>
@@ -9845,7 +10180,7 @@
       <c r="E71" s="57"/>
       <c r="F71" s="54"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -9861,7 +10196,7 @@
       <c r="E72" s="57"/>
       <c r="F72" s="54"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>24</v>
       </c>
@@ -9877,7 +10212,7 @@
       <c r="E73" s="57"/>
       <c r="F73" s="54"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>25</v>
       </c>
@@ -9893,7 +10228,7 @@
       <c r="E74" s="57"/>
       <c r="F74" s="54"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>26</v>
       </c>
@@ -9909,7 +10244,7 @@
       <c r="E75" s="57"/>
       <c r="F75" s="54"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>27</v>
       </c>
@@ -9925,7 +10260,7 @@
       <c r="E76" s="57"/>
       <c r="F76" s="54"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>28</v>
       </c>
@@ -9941,7 +10276,7 @@
       <c r="E77" s="57"/>
       <c r="F77" s="54"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>29</v>
       </c>
@@ -9957,7 +10292,7 @@
       <c r="E78" s="57"/>
       <c r="F78" s="54"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>30</v>
       </c>
@@ -9973,7 +10308,7 @@
       <c r="E79" s="57"/>
       <c r="F79" s="54"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>31</v>
       </c>
@@ -9989,7 +10324,7 @@
       <c r="E80" s="57"/>
       <c r="F80" s="54"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>32</v>
       </c>
@@ -10005,7 +10340,7 @@
       <c r="E81" s="57"/>
       <c r="F81" s="54"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>33</v>
       </c>
@@ -10021,7 +10356,7 @@
       <c r="E82" s="57"/>
       <c r="F82" s="54"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>34</v>
       </c>
@@ -10037,7 +10372,7 @@
       <c r="E83" s="57"/>
       <c r="F83" s="54"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>35</v>
       </c>
@@ -10053,7 +10388,7 @@
       <c r="E84" s="57"/>
       <c r="F84" s="54"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>36</v>
       </c>
@@ -10069,7 +10404,7 @@
       <c r="E85" s="57"/>
       <c r="F85" s="54"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>37</v>
       </c>
@@ -10085,7 +10420,7 @@
       <c r="E86" s="57"/>
       <c r="F86" s="54"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>38</v>
       </c>
@@ -10101,7 +10436,7 @@
       <c r="E87" s="57"/>
       <c r="F87" s="54"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>39</v>
       </c>
@@ -10117,7 +10452,7 @@
       <c r="E88" s="57"/>
       <c r="F88" s="54"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>40</v>
       </c>
@@ -10133,7 +10468,7 @@
       <c r="E89" s="57"/>
       <c r="F89" s="54"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>41</v>
       </c>
@@ -10149,7 +10484,7 @@
       <c r="E90" s="57"/>
       <c r="F90" s="54"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>42</v>
       </c>
@@ -10165,7 +10500,7 @@
       <c r="E91" s="57"/>
       <c r="F91" s="54"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -10181,7 +10516,7 @@
       <c r="E92" s="57"/>
       <c r="F92" s="54"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>44</v>
       </c>
@@ -10197,7 +10532,7 @@
       <c r="E93" s="57"/>
       <c r="F93" s="54"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>45</v>
       </c>
@@ -10213,7 +10548,7 @@
       <c r="E94" s="57"/>
       <c r="F94" s="54"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>46</v>
       </c>
@@ -10229,7 +10564,7 @@
       <c r="E95" s="57"/>
       <c r="F95" s="54"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>47</v>
       </c>
@@ -10245,7 +10580,7 @@
       <c r="E96" s="57"/>
       <c r="F96" s="54"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>48</v>
       </c>
@@ -10261,7 +10596,7 @@
       <c r="E97" s="57"/>
       <c r="F97" s="54"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>49</v>
       </c>
@@ -10277,7 +10612,7 @@
       <c r="E98" s="57"/>
       <c r="F98" s="54"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>50</v>
       </c>
@@ -10293,7 +10628,7 @@
       <c r="E99" s="57"/>
       <c r="F99" s="54"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>51</v>
       </c>
@@ -10309,7 +10644,7 @@
       <c r="E100" s="57"/>
       <c r="F100" s="54"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>52</v>
       </c>
@@ -10325,7 +10660,7 @@
       <c r="E101" s="57"/>
       <c r="F101" s="54"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>53</v>
       </c>
@@ -10341,7 +10676,7 @@
       <c r="E102" s="57"/>
       <c r="F102" s="54"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>54</v>
       </c>
@@ -10357,7 +10692,7 @@
       <c r="E103" s="57"/>
       <c r="F103" s="54"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>4</v>
       </c>
@@ -10373,7 +10708,7 @@
       <c r="E104" s="57"/>
       <c r="F104" s="54"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
@@ -10389,7 +10724,7 @@
       <c r="E105" s="57"/>
       <c r="F105" s="54"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>6</v>
       </c>
@@ -10405,7 +10740,7 @@
       <c r="E106" s="57"/>
       <c r="F106" s="54"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>7</v>
       </c>
@@ -10421,7 +10756,7 @@
       <c r="E107" s="57"/>
       <c r="F107" s="54"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>8</v>
       </c>
@@ -10437,7 +10772,7 @@
       <c r="E108" s="57"/>
       <c r="F108" s="54"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>9</v>
       </c>
@@ -10453,7 +10788,7 @@
       <c r="E109" s="57"/>
       <c r="F109" s="54"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>10</v>
       </c>
@@ -10469,7 +10804,7 @@
       <c r="E110" s="57"/>
       <c r="F110" s="54"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
@@ -10485,7 +10820,7 @@
       <c r="E111" s="57"/>
       <c r="F111" s="54"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>12</v>
       </c>
@@ -10501,7 +10836,7 @@
       <c r="E112" s="57"/>
       <c r="F112" s="54"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>13</v>
       </c>
@@ -10517,7 +10852,7 @@
       <c r="E113" s="57"/>
       <c r="F113" s="54"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>14</v>
       </c>
@@ -10533,7 +10868,7 @@
       <c r="E114" s="57"/>
       <c r="F114" s="54"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>15</v>
       </c>
@@ -10549,7 +10884,7 @@
       <c r="E115" s="57"/>
       <c r="F115" s="54"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -10565,7 +10900,7 @@
       <c r="E116" s="57"/>
       <c r="F116" s="54"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>17</v>
       </c>
@@ -10581,7 +10916,7 @@
       <c r="E117" s="57"/>
       <c r="F117" s="54"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>18</v>
       </c>
@@ -10597,7 +10932,7 @@
       <c r="E118" s="57"/>
       <c r="F118" s="54"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>19</v>
       </c>
@@ -10613,7 +10948,7 @@
       <c r="E119" s="57"/>
       <c r="F119" s="54"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>20</v>
       </c>
@@ -10629,7 +10964,7 @@
       <c r="E120" s="57"/>
       <c r="F120" s="54"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>21</v>
       </c>
@@ -10645,7 +10980,7 @@
       <c r="E121" s="57"/>
       <c r="F121" s="54"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>22</v>
       </c>
@@ -10661,7 +10996,7 @@
       <c r="E122" s="57"/>
       <c r="F122" s="54"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>23</v>
       </c>
@@ -10677,7 +11012,7 @@
       <c r="E123" s="57"/>
       <c r="F123" s="54"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>24</v>
       </c>
@@ -10693,7 +11028,7 @@
       <c r="E124" s="57"/>
       <c r="F124" s="54"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>25</v>
       </c>
@@ -10709,7 +11044,7 @@
       <c r="E125" s="57"/>
       <c r="F125" s="54"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>26</v>
       </c>
@@ -10725,7 +11060,7 @@
       <c r="E126" s="57"/>
       <c r="F126" s="54"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>27</v>
       </c>
@@ -10741,7 +11076,7 @@
       <c r="E127" s="57"/>
       <c r="F127" s="54"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>28</v>
       </c>
@@ -10757,7 +11092,7 @@
       <c r="E128" s="57"/>
       <c r="F128" s="54"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>29</v>
       </c>
@@ -10773,7 +11108,7 @@
       <c r="E129" s="57"/>
       <c r="F129" s="54"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>30</v>
       </c>
@@ -10789,7 +11124,7 @@
       <c r="E130" s="57"/>
       <c r="F130" s="54"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>31</v>
       </c>
@@ -10805,7 +11140,7 @@
       <c r="E131" s="57"/>
       <c r="F131" s="54"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>32</v>
       </c>
@@ -10821,7 +11156,7 @@
       <c r="E132" s="57"/>
       <c r="F132" s="54"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>33</v>
       </c>
@@ -10837,7 +11172,7 @@
       <c r="E133" s="57"/>
       <c r="F133" s="54"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>34</v>
       </c>
@@ -10853,7 +11188,7 @@
       <c r="E134" s="57"/>
       <c r="F134" s="54"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>35</v>
       </c>
@@ -10869,7 +11204,7 @@
       <c r="E135" s="57"/>
       <c r="F135" s="54"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>36</v>
       </c>
@@ -10885,7 +11220,7 @@
       <c r="E136" s="57"/>
       <c r="F136" s="54"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>37</v>
       </c>
@@ -10901,7 +11236,7 @@
       <c r="E137" s="57"/>
       <c r="F137" s="54"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>38</v>
       </c>
@@ -10917,7 +11252,7 @@
       <c r="E138" s="57"/>
       <c r="F138" s="54"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>39</v>
       </c>
@@ -10933,7 +11268,7 @@
       <c r="E139" s="57"/>
       <c r="F139" s="54"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>40</v>
       </c>
@@ -10949,7 +11284,7 @@
       <c r="E140" s="57"/>
       <c r="F140" s="54"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>41</v>
       </c>
@@ -10965,7 +11300,7 @@
       <c r="E141" s="57"/>
       <c r="F141" s="54"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>42</v>
       </c>
@@ -10981,7 +11316,7 @@
       <c r="E142" s="57"/>
       <c r="F142" s="54"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>43</v>
       </c>
@@ -10997,7 +11332,7 @@
       <c r="E143" s="57"/>
       <c r="F143" s="54"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>44</v>
       </c>
@@ -11013,7 +11348,7 @@
       <c r="E144" s="57"/>
       <c r="F144" s="54"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>45</v>
       </c>
@@ -11029,7 +11364,7 @@
       <c r="E145" s="57"/>
       <c r="F145" s="54"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>46</v>
       </c>
@@ -11045,7 +11380,7 @@
       <c r="E146" s="57"/>
       <c r="F146" s="54"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>47</v>
       </c>
@@ -11061,7 +11396,7 @@
       <c r="E147" s="57"/>
       <c r="F147" s="54"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>48</v>
       </c>
@@ -11077,7 +11412,7 @@
       <c r="E148" s="57"/>
       <c r="F148" s="54"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>49</v>
       </c>
@@ -11093,7 +11428,7 @@
       <c r="E149" s="57"/>
       <c r="F149" s="54"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>50</v>
       </c>
@@ -11109,7 +11444,7 @@
       <c r="E150" s="57"/>
       <c r="F150" s="54"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>51</v>
       </c>
@@ -11125,7 +11460,7 @@
       <c r="E151" s="57"/>
       <c r="F151" s="54"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>52</v>
       </c>
@@ -11141,7 +11476,7 @@
       <c r="E152" s="57"/>
       <c r="F152" s="54"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>53</v>
       </c>
@@ -11157,7 +11492,7 @@
       <c r="E153" s="57"/>
       <c r="F153" s="54"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>54</v>
       </c>
@@ -11173,7 +11508,7 @@
       <c r="E154" s="57"/>
       <c r="F154" s="54"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>4</v>
       </c>
@@ -11189,7 +11524,7 @@
       <c r="E155" s="57"/>
       <c r="F155" s="54"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>5</v>
       </c>
@@ -11205,7 +11540,7 @@
       <c r="E156" s="57"/>
       <c r="F156" s="54"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>6</v>
       </c>
@@ -11221,7 +11556,7 @@
       <c r="E157" s="57"/>
       <c r="F157" s="54"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>7</v>
       </c>
@@ -11237,7 +11572,7 @@
       <c r="E158" s="57"/>
       <c r="F158" s="54"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>8</v>
       </c>
@@ -11253,7 +11588,7 @@
       <c r="E159" s="57"/>
       <c r="F159" s="54"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>9</v>
       </c>
@@ -11269,7 +11604,7 @@
       <c r="E160" s="57"/>
       <c r="F160" s="54"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>10</v>
       </c>
@@ -11285,7 +11620,7 @@
       <c r="E161" s="57"/>
       <c r="F161" s="54"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>11</v>
       </c>
@@ -11301,7 +11636,7 @@
       <c r="E162" s="57"/>
       <c r="F162" s="54"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>12</v>
       </c>
@@ -11317,7 +11652,7 @@
       <c r="E163" s="57"/>
       <c r="F163" s="54"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>13</v>
       </c>
@@ -11333,7 +11668,7 @@
       <c r="E164" s="57"/>
       <c r="F164" s="54"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>14</v>
       </c>
@@ -11349,7 +11684,7 @@
       <c r="E165" s="57"/>
       <c r="F165" s="54"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>15</v>
       </c>
@@ -11365,7 +11700,7 @@
       <c r="E166" s="57"/>
       <c r="F166" s="54"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>16</v>
       </c>
@@ -11381,7 +11716,7 @@
       <c r="E167" s="57"/>
       <c r="F167" s="54"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>17</v>
       </c>
@@ -11397,7 +11732,7 @@
       <c r="E168" s="57"/>
       <c r="F168" s="54"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>18</v>
       </c>
@@ -11413,7 +11748,7 @@
       <c r="E169" s="57"/>
       <c r="F169" s="54"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>19</v>
       </c>
@@ -11429,7 +11764,7 @@
       <c r="E170" s="57"/>
       <c r="F170" s="54"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>20</v>
       </c>
@@ -11445,7 +11780,7 @@
       <c r="E171" s="57"/>
       <c r="F171" s="54"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>21</v>
       </c>
@@ -11461,7 +11796,7 @@
       <c r="E172" s="57"/>
       <c r="F172" s="54"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>22</v>
       </c>
@@ -11477,7 +11812,7 @@
       <c r="E173" s="57"/>
       <c r="F173" s="54"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>23</v>
       </c>
@@ -11493,7 +11828,7 @@
       <c r="E174" s="57"/>
       <c r="F174" s="54"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>24</v>
       </c>
@@ -11509,7 +11844,7 @@
       <c r="E175" s="57"/>
       <c r="F175" s="54"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>25</v>
       </c>
@@ -11525,7 +11860,7 @@
       <c r="E176" s="57"/>
       <c r="F176" s="54"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>26</v>
       </c>
@@ -11541,7 +11876,7 @@
       <c r="E177" s="57"/>
       <c r="F177" s="54"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>27</v>
       </c>
@@ -11557,7 +11892,7 @@
       <c r="E178" s="57"/>
       <c r="F178" s="54"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>28</v>
       </c>
@@ -11573,7 +11908,7 @@
       <c r="E179" s="57"/>
       <c r="F179" s="54"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>29</v>
       </c>
@@ -11589,7 +11924,7 @@
       <c r="E180" s="57"/>
       <c r="F180" s="54"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>30</v>
       </c>
@@ -11605,7 +11940,7 @@
       <c r="E181" s="57"/>
       <c r="F181" s="54"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>31</v>
       </c>
@@ -11621,7 +11956,7 @@
       <c r="E182" s="57"/>
       <c r="F182" s="54"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>32</v>
       </c>
@@ -11637,7 +11972,7 @@
       <c r="E183" s="57"/>
       <c r="F183" s="54"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>33</v>
       </c>
@@ -11653,7 +11988,7 @@
       <c r="E184" s="57"/>
       <c r="F184" s="54"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>34</v>
       </c>
@@ -11669,7 +12004,7 @@
       <c r="E185" s="57"/>
       <c r="F185" s="54"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>35</v>
       </c>
@@ -11685,7 +12020,7 @@
       <c r="E186" s="57"/>
       <c r="F186" s="54"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>36</v>
       </c>
@@ -11701,7 +12036,7 @@
       <c r="E187" s="57"/>
       <c r="F187" s="54"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>37</v>
       </c>
@@ -11717,7 +12052,7 @@
       <c r="E188" s="57"/>
       <c r="F188" s="54"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>38</v>
       </c>
@@ -11733,7 +12068,7 @@
       <c r="E189" s="57"/>
       <c r="F189" s="54"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>39</v>
       </c>
@@ -11749,7 +12084,7 @@
       <c r="E190" s="57"/>
       <c r="F190" s="54"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>40</v>
       </c>
@@ -11765,7 +12100,7 @@
       <c r="E191" s="57"/>
       <c r="F191" s="54"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>41</v>
       </c>
@@ -11781,7 +12116,7 @@
       <c r="E192" s="57"/>
       <c r="F192" s="54"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>42</v>
       </c>
@@ -11797,7 +12132,7 @@
       <c r="E193" s="57"/>
       <c r="F193" s="54"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>43</v>
       </c>
@@ -11813,7 +12148,7 @@
       <c r="E194" s="57"/>
       <c r="F194" s="54"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>44</v>
       </c>
@@ -11829,7 +12164,7 @@
       <c r="E195" s="57"/>
       <c r="F195" s="54"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>45</v>
       </c>
@@ -11845,7 +12180,7 @@
       <c r="E196" s="57"/>
       <c r="F196" s="54"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>46</v>
       </c>
@@ -11861,7 +12196,7 @@
       <c r="E197" s="57"/>
       <c r="F197" s="54"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>47</v>
       </c>
@@ -11877,7 +12212,7 @@
       <c r="E198" s="57"/>
       <c r="F198" s="54"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>48</v>
       </c>
@@ -11893,7 +12228,7 @@
       <c r="E199" s="57"/>
       <c r="F199" s="54"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>49</v>
       </c>
@@ -11909,7 +12244,7 @@
       <c r="E200" s="57"/>
       <c r="F200" s="54"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>50</v>
       </c>
@@ -11925,7 +12260,7 @@
       <c r="E201" s="57"/>
       <c r="F201" s="54"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>51</v>
       </c>
@@ -11941,7 +12276,7 @@
       <c r="E202" s="57"/>
       <c r="F202" s="54"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>52</v>
       </c>
@@ -11957,7 +12292,7 @@
       <c r="E203" s="57"/>
       <c r="F203" s="54"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>53</v>
       </c>
@@ -11973,7 +12308,7 @@
       <c r="E204" s="57"/>
       <c r="F204" s="54"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>54</v>
       </c>
@@ -12009,13 +12344,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12023,7 +12358,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -12031,7 +12366,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -12039,7 +12374,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -12047,7 +12382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -12055,7 +12390,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -12063,7 +12398,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -12071,7 +12406,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -12079,7 +12414,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -12087,7 +12422,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -12095,7 +12430,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -12103,7 +12438,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -12111,7 +12446,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -12119,7 +12454,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -12127,7 +12462,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -12135,7 +12470,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -12143,7 +12478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -12151,7 +12486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -12159,7 +12494,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -12167,7 +12502,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -12175,7 +12510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -12183,7 +12518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -12191,7 +12526,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -12199,7 +12534,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -12207,7 +12542,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -12215,7 +12550,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -12223,7 +12558,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -12231,7 +12566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -12239,7 +12574,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -12247,7 +12582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -12255,7 +12590,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -12263,7 +12598,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -12271,7 +12606,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -12279,7 +12614,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -12287,7 +12622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -12295,7 +12630,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -12303,7 +12638,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -12311,7 +12646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -12319,7 +12654,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -12327,7 +12662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -12335,7 +12670,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -12343,7 +12678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -12351,7 +12686,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -12359,7 +12694,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -12367,7 +12702,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -12375,7 +12710,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -12383,7 +12718,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -12391,7 +12726,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -12399,7 +12734,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -12407,7 +12742,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -12415,7 +12750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -12423,7 +12758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -12450,14 +12785,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12468,7 +12803,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -12479,7 +12814,7 @@
         <v>24477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12490,7 +12825,7 @@
         <v>31027</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -12501,7 +12836,7 @@
         <v>25878</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -12512,7 +12847,7 @@
         <v>22750</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -12523,7 +12858,7 @@
         <v>32655</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -12534,7 +12869,7 @@
         <v>33455</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -12545,7 +12880,7 @@
         <v>32166</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -12556,7 +12891,7 @@
         <v>40539</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -12567,7 +12902,7 @@
         <v>29048</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -12578,7 +12913,7 @@
         <v>28523</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -12589,7 +12924,7 @@
         <v>29034</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -12600,7 +12935,7 @@
         <v>24506</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -12611,7 +12946,7 @@
         <v>27522</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -12622,7 +12957,7 @@
         <v>27225</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -12633,7 +12968,7 @@
         <v>28432</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -12644,7 +12979,7 @@
         <v>35279</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -12655,7 +12990,7 @@
         <v>38864</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -12666,7 +13001,7 @@
         <v>29629</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -12677,7 +13012,7 @@
         <v>33059</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -12688,7 +13023,7 @@
         <v>21653</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -12699,7 +13034,7 @@
         <v>28221</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -12710,7 +13045,7 @@
         <v>24044</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -12721,7 +13056,7 @@
         <v>28861</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -12732,7 +13067,7 @@
         <v>30128</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -12743,7 +13078,7 @@
         <v>33969</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -12754,7 +13089,7 @@
         <v>38625</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -12765,7 +13100,7 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -12776,7 +13111,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -12787,7 +13122,7 @@
         <v>27308</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -12798,7 +13133,7 @@
         <v>25798</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -12809,7 +13144,7 @@
         <v>28699</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -12820,7 +13155,7 @@
         <v>24945</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -12831,7 +13166,7 @@
         <v>28222</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -12842,7 +13177,7 @@
         <v>30752</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -12853,7 +13188,7 @@
         <v>30256</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -12864,7 +13199,7 @@
         <v>24840</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -12875,7 +13210,7 @@
         <v>26566</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -12886,7 +13221,7 @@
         <v>26808</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -12897,7 +13232,7 @@
         <v>28472</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -12908,7 +13243,7 @@
         <v>24033</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -12919,7 +13254,7 @@
         <v>28756</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -12930,7 +13265,7 @@
         <v>32338</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -12941,7 +13276,7 @@
         <v>31976</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -12952,7 +13287,7 @@
         <v>22862</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -12963,7 +13298,7 @@
         <v>29196</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -12974,7 +13309,7 @@
         <v>29587</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -12985,7 +13320,7 @@
         <v>25128</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -12996,7 +13331,7 @@
         <v>32151</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -13007,7 +13342,7 @@
         <v>26183</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -13018,7 +13353,7 @@
         <v>23512</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -13029,7 +13364,7 @@
         <v>32996</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -13040,7 +13375,7 @@
         <v>33276</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -13051,7 +13386,7 @@
         <v>42706</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -13062,7 +13397,7 @@
         <v>42120</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -13073,7 +13408,7 @@
         <v>29596</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -13084,7 +13419,7 @@
         <v>28821</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -13095,7 +13430,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -13106,7 +13441,7 @@
         <v>25057</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -13117,7 +13452,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -13128,7 +13463,7 @@
         <v>28240</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -13139,7 +13474,7 @@
         <v>28280</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -13150,7 +13485,7 @@
         <v>29141</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -13161,7 +13496,7 @@
         <v>25446</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -13172,7 +13507,7 @@
         <v>27744</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -13183,7 +13518,7 @@
         <v>39244</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -13194,7 +13529,7 @@
         <v>30296</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -13205,7 +13540,7 @@
         <v>34071</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -13216,7 +13551,7 @@
         <v>22372</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -13227,7 +13562,7 @@
         <v>28936</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -13238,7 +13573,7 @@
         <v>25020</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -13249,7 +13584,7 @@
         <v>29771</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -13260,7 +13595,7 @@
         <v>30180</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -13271,7 +13606,7 @@
         <v>34334</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -13282,7 +13617,7 @@
         <v>39453</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -13293,7 +13628,7 @@
         <v>23941</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -13304,7 +13639,7 @@
         <v>36043</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -13315,7 +13650,7 @@
         <v>27711</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -13326,7 +13661,7 @@
         <v>26982</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -13337,7 +13672,7 @@
         <v>29405</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -13348,7 +13683,7 @@
         <v>25575</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -13359,7 +13694,7 @@
         <v>28731</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -13370,7 +13705,7 @@
         <v>31727</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>43</v>
       </c>
@@ -13381,7 +13716,7 @@
         <v>31319</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -13392,7 +13727,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>45</v>
       </c>
@@ -13403,7 +13738,7 @@
         <v>26894</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>46</v>
       </c>
@@ -13414,7 +13749,7 @@
         <v>27671</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -13425,7 +13760,7 @@
         <v>28551</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -13436,7 +13771,7 @@
         <v>24306</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -13447,7 +13782,7 @@
         <v>29567</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>50</v>
       </c>
@@ -13458,7 +13793,7 @@
         <v>32922</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -13469,7 +13804,7 @@
         <v>32677</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>52</v>
       </c>
@@ -13480,7 +13815,7 @@
         <v>23688</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>53</v>
       </c>
@@ -13491,7 +13826,7 @@
         <v>29923</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>54</v>
       </c>
@@ -13502,7 +13837,7 @@
         <v>30578</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -13513,7 +13848,7 @@
         <v>26338</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -13524,7 +13859,7 @@
         <v>33568</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -13535,7 +13870,7 @@
         <v>26838</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -13546,7 +13881,7 @@
         <v>24289</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -13557,7 +13892,7 @@
         <v>33749</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -13568,7 +13903,7 @@
         <v>34283</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -13579,7 +13914,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -13590,7 +13925,7 @@
         <v>48342</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -13601,7 +13936,7 @@
         <v>30446</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -13612,7 +13947,7 @@
         <v>29442</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -13623,7 +13958,7 @@
         <v>30913</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -13634,7 +13969,7 @@
         <v>28783</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -13645,7 +13980,7 @@
         <v>29043</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -13656,7 +13991,7 @@
         <v>29935</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -13667,7 +14002,7 @@
         <v>26252</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -13678,7 +14013,7 @@
         <v>26100</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -13689,7 +14024,7 @@
         <v>28831</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -13700,7 +14035,7 @@
         <v>37331</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -13711,7 +14046,7 @@
         <v>39815</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -13722,7 +14057,7 @@
         <v>30439</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -13733,7 +14068,7 @@
         <v>34443</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -13744,7 +14079,7 @@
         <v>23448</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>29</v>
       </c>
@@ -13755,7 +14090,7 @@
         <v>29252</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -13766,7 +14101,7 @@
         <v>25920</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -13777,7 +14112,7 @@
         <v>30758</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -13788,7 +14123,7 @@
         <v>31266</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -13799,7 +14134,7 @@
         <v>34702</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -13810,7 +14145,7 @@
         <v>40427</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>35</v>
       </c>
@@ -13821,7 +14156,7 @@
         <v>25541</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -13832,7 +14167,7 @@
         <v>36574</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>37</v>
       </c>
@@ -13843,7 +14178,7 @@
         <v>28235</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>38</v>
       </c>
@@ -13854,7 +14189,7 @@
         <v>29204</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>39</v>
       </c>
@@ -13865,7 +14200,7 @@
         <v>29944</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>40</v>
       </c>
@@ -13876,7 +14211,7 @@
         <v>26656</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -13887,7 +14222,7 @@
         <v>29340</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -13898,7 +14233,7 @@
         <v>31998</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>43</v>
       </c>
@@ -13909,7 +14244,7 @@
         <v>31916</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>44</v>
       </c>
@@ -13920,7 +14255,7 @@
         <v>26132</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -13931,7 +14266,7 @@
         <v>29234</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>46</v>
       </c>
@@ -13942,7 +14277,7 @@
         <v>28455</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>47</v>
       </c>
@@ -13953,7 +14288,7 @@
         <v>29372</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>48</v>
       </c>
@@ -13964,7 +14299,7 @@
         <v>24977</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -13975,7 +14310,7 @@
         <v>30740</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>50</v>
       </c>
@@ -13986,7 +14321,7 @@
         <v>33671</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>51</v>
       </c>
@@ -13997,7 +14332,7 @@
         <v>33332</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>52</v>
       </c>
@@ -14008,7 +14343,7 @@
         <v>24379</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>53</v>
       </c>
@@ -14019,7 +14354,7 @@
         <v>30898</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>54</v>
       </c>
@@ -14030,7 +14365,7 @@
         <v>32808</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -14041,7 +14376,7 @@
         <v>29136</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -14052,7 +14387,7 @@
         <v>35612</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -14063,7 +14398,7 @@
         <v>30267</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -14074,7 +14409,7 @@
         <v>26874</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -14085,7 +14420,7 @@
         <v>37036</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -14096,7 +14431,7 @@
         <v>37946</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -14107,7 +14442,7 @@
         <v>47819</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -14118,7 +14453,7 @@
         <v>37065</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -14129,7 +14464,7 @@
         <v>54985</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -14140,7 +14475,7 @@
         <v>33219</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -14151,7 +14486,7 @@
         <v>31121</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -14162,7 +14497,7 @@
         <v>34539</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>16</v>
       </c>
@@ -14173,7 +14508,7 @@
         <v>28158</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -14184,7 +14519,7 @@
         <v>36120</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -14195,7 +14530,7 @@
         <v>31276</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -14206,7 +14541,7 @@
         <v>32315</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -14217,7 +14552,7 @@
         <v>32836</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -14228,7 +14563,7 @@
         <v>28513</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>22</v>
       </c>
@@ -14239,7 +14574,7 @@
         <v>24820</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>23</v>
       </c>
@@ -14250,7 +14585,7 @@
         <v>31252</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>24</v>
       </c>
@@ -14261,7 +14596,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>25</v>
       </c>
@@ -14272,7 +14607,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -14283,7 +14618,7 @@
         <v>33116</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>27</v>
       </c>
@@ -14294,7 +14629,7 @@
         <v>37373</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -14305,7 +14640,7 @@
         <v>25318</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>29</v>
       </c>
@@ -14316,7 +14651,7 @@
         <v>31899</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -14327,7 +14662,7 @@
         <v>29387</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -14338,7 +14673,7 @@
         <v>33616</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>33</v>
       </c>
@@ -14349,7 +14684,7 @@
         <v>38408</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>35</v>
       </c>
@@ -14360,7 +14695,7 @@
         <v>27644</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -14371,7 +14706,7 @@
         <v>30553</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>38</v>
       </c>
@@ -14382,7 +14717,7 @@
         <v>31395</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>39</v>
       </c>
@@ -14393,7 +14728,7 @@
         <v>32478</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>40</v>
       </c>
@@ -14404,7 +14739,7 @@
         <v>29330</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>41</v>
       </c>
@@ -14415,7 +14750,7 @@
         <v>32103</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>42</v>
       </c>
@@ -14426,7 +14761,7 @@
         <v>34897</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>43</v>
       </c>
@@ -14437,7 +14772,7 @@
         <v>36153</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>44</v>
       </c>
@@ -14448,7 +14783,7 @@
         <v>28352</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>45</v>
       </c>
@@ -14459,7 +14794,7 @@
         <v>31614</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>46</v>
       </c>
@@ -14470,7 +14805,7 @@
         <v>31107</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>47</v>
       </c>
@@ -14481,7 +14816,7 @@
         <v>32462</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>49</v>
       </c>
@@ -14492,7 +14827,7 @@
         <v>33327</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>50</v>
       </c>
@@ -14503,7 +14838,7 @@
         <v>38390</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>51</v>
       </c>
@@ -14514,7 +14849,7 @@
         <v>35409</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>52</v>
       </c>
@@ -14525,7 +14860,7 @@
         <v>27215</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>53</v>
       </c>
@@ -14536,7 +14871,7 @@
         <v>33565</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -14566,15 +14901,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" style="63" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -14588,7 +14923,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2000</v>
       </c>
@@ -14606,7 +14941,7 @@
       </c>
       <c r="G2" s="60"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
@@ -14624,7 +14959,7 @@
       </c>
       <c r="G3" s="60"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
@@ -14638,7 +14973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2003</v>
       </c>
@@ -14656,7 +14991,7 @@
       </c>
       <c r="G5" s="61"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2004</v>
       </c>
@@ -14670,7 +15005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2005</v>
       </c>
@@ -14684,7 +15019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2006</v>
       </c>
@@ -14698,7 +15033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2007</v>
       </c>
@@ -14712,7 +15047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2008</v>
       </c>
@@ -14726,7 +15061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2009</v>
       </c>
@@ -14740,7 +15075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2010</v>
       </c>
@@ -14754,7 +15089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2011</v>
       </c>
@@ -14768,7 +15103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2012</v>
       </c>
@@ -14782,7 +15117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2013</v>
       </c>
@@ -14796,7 +15131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2014</v>
       </c>
@@ -14810,7 +15145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2015</v>
       </c>
@@ -14824,7 +15159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2016</v>
       </c>
@@ -14858,15 +15193,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="46" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>126</v>
       </c>
@@ -14875,7 +15210,7 @@
       </c>
       <c r="D1" s="32"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45">
         <v>42370</v>
       </c>
@@ -14887,7 +15222,7 @@
       </c>
       <c r="D2" s="48"/>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
         <v>42371</v>
       </c>
@@ -14896,7 +15231,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45">
         <v>42372</v>
       </c>
@@ -14908,7 +15243,7 @@
       </c>
       <c r="D4" s="49"/>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45">
         <v>42373</v>
       </c>
@@ -14917,7 +15252,7 @@
       </c>
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45">
         <v>42374</v>
       </c>
@@ -14929,7 +15264,7 @@
       </c>
       <c r="D6" s="48"/>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45">
         <v>42375</v>
       </c>
@@ -14938,7 +15273,7 @@
       </c>
       <c r="D7" s="47"/>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45">
         <v>42376</v>
       </c>
@@ -14950,7 +15285,7 @@
       </c>
       <c r="D8" s="48"/>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45">
         <v>42377</v>
       </c>
@@ -14960,7 +15295,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="47"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45">
         <v>42378</v>
       </c>
@@ -14972,7 +15307,7 @@
       </c>
       <c r="D10" s="48"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>42379</v>
       </c>
@@ -14981,7 +15316,7 @@
       </c>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>42380</v>
       </c>
@@ -14989,7 +15324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>42381</v>
       </c>
@@ -14997,7 +15332,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>42382</v>
       </c>
@@ -15005,7 +15340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>42383</v>
       </c>
@@ -15013,7 +15348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>42384</v>
       </c>
@@ -15021,7 +15356,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>42385</v>
       </c>
@@ -15029,7 +15364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>42386</v>
       </c>
@@ -15037,7 +15372,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
         <v>42387</v>
       </c>
@@ -15045,7 +15380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>42388</v>
       </c>
@@ -15053,7 +15388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>42389</v>
       </c>
@@ -15079,19 +15414,19 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>177</v>
       </c>
@@ -15117,7 +15452,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>188</v>
       </c>
@@ -15129,7 +15464,7 @@
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>189</v>
       </c>
@@ -15141,7 +15476,7 @@
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>190</v>
       </c>
@@ -15153,7 +15488,7 @@
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>191</v>
       </c>
@@ -15165,7 +15500,7 @@
       <c r="G5" s="58"/>
       <c r="H5" s="58"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>192</v>
       </c>
@@ -15177,7 +15512,7 @@
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>193</v>
       </c>
@@ -15189,7 +15524,7 @@
       <c r="G7" s="58"/>
       <c r="H7" s="58"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>194</v>
       </c>
@@ -15201,7 +15536,7 @@
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>195</v>
       </c>
@@ -15213,7 +15548,7 @@
       <c r="G9" s="58"/>
       <c r="H9" s="58"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>196</v>
       </c>
@@ -15225,7 +15560,7 @@
       <c r="G10" s="58"/>
       <c r="H10" s="58"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>197</v>
       </c>
@@ -15237,7 +15572,7 @@
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>198</v>
       </c>
@@ -15249,7 +15584,7 @@
       <c r="G12" s="58"/>
       <c r="H12" s="58"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>199</v>
       </c>
@@ -15261,7 +15596,7 @@
       <c r="G13" s="58"/>
       <c r="H13" s="58"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>200</v>
       </c>
@@ -15273,7 +15608,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>203</v>
       </c>

--- a/homework_workbook/Excel_Homework_Exercises.xlsx
+++ b/homework_workbook/Excel_Homework_Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASTER\Documents\Especializacion\Excel\craft_excel\homework_workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B06A50-C077-4F64-B9CD-F2C7EEEE264C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF13F60-FB18-48BA-A4DC-BAC06F61AB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -968,7 +968,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1130,9 +1130,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5481,7 +5478,7 @@
         <v>0.35678391959798994</v>
       </c>
       <c r="F4" s="56">
-        <f t="shared" ref="F3:F26" si="1">D4/$B4</f>
+        <f t="shared" ref="F4:F26" si="1">D4/$B4</f>
         <v>9.5477386934673364E-2</v>
       </c>
     </row>
@@ -6063,7 +6060,7 @@
       <c r="B9" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="65"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
@@ -6153,7 +6150,7 @@
     <col min="3" max="3" width="17.42578125" style="43" customWidth="1"/>
     <col min="4" max="5" width="14.85546875" style="43" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6175,7 +6172,7 @@
       <c r="F1" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6199,7 +6196,7 @@
       <c r="F2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="66">
         <f>E2/B2</f>
         <v>0.41492265696087355</v>
       </c>
@@ -6224,7 +6221,7 @@
       <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="67">
         <f t="shared" ref="G3:G25" si="0">E3/B3</f>
         <v>0.17524916943521596</v>
       </c>
@@ -6250,7 +6247,7 @@
       <c r="F4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="67">
         <f t="shared" si="0"/>
         <v>0.50411522633744854</v>
       </c>
@@ -6276,7 +6273,7 @@
       <c r="F5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="67">
         <f t="shared" si="0"/>
         <v>0.52380952380952384</v>
       </c>
@@ -6302,7 +6299,7 @@
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="67">
         <f t="shared" si="0"/>
         <v>0.43443132380360472</v>
       </c>
@@ -6328,7 +6325,7 @@
       <c r="F7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="67">
         <f t="shared" si="0"/>
         <v>0.39156626506024095</v>
       </c>
@@ -6354,7 +6351,7 @@
       <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="67">
         <f t="shared" si="0"/>
         <v>0.57631444614599281</v>
       </c>
@@ -6380,7 +6377,7 @@
       <c r="F9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="67">
         <f t="shared" si="0"/>
         <v>0.51498929336188437</v>
       </c>
@@ -6406,7 +6403,7 @@
       <c r="F10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="67">
         <f t="shared" si="0"/>
         <v>0.47848537005163511</v>
       </c>
@@ -6432,7 +6429,7 @@
       <c r="F11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="67">
         <f t="shared" si="0"/>
         <v>0.3377808988764045</v>
       </c>
@@ -6458,7 +6455,7 @@
       <c r="F12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="67">
         <f t="shared" si="0"/>
         <v>0.34983766233766234</v>
       </c>
@@ -6484,7 +6481,7 @@
       <c r="F13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="67">
         <f t="shared" si="0"/>
         <v>0.54775604142692746</v>
       </c>
@@ -6510,7 +6507,7 @@
       <c r="F14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="67">
         <f t="shared" si="0"/>
         <v>0.5993031358885017</v>
       </c>
@@ -6536,7 +6533,7 @@
       <c r="F15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="67">
         <f t="shared" si="0"/>
         <v>0.59571045576407511</v>
       </c>
@@ -6562,7 +6559,7 @@
       <c r="F16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="67">
         <f t="shared" si="0"/>
         <v>0.51458670988654787</v>
       </c>
@@ -6588,7 +6585,7 @@
       <c r="F17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="67">
         <f t="shared" si="0"/>
         <v>0.40393151553582751</v>
       </c>
@@ -6614,7 +6611,7 @@
       <c r="F18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="67">
         <f t="shared" si="0"/>
         <v>0.51891074130105896</v>
       </c>
@@ -6640,7 +6637,7 @@
       <c r="F19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="67">
         <f t="shared" si="0"/>
         <v>0.57448377581120946</v>
       </c>
@@ -6665,7 +6662,7 @@
       <c r="F20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="67">
         <f t="shared" si="0"/>
         <v>0.47118463180362863</v>
       </c>
@@ -6691,7 +6688,7 @@
       <c r="F21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="67">
         <f t="shared" si="0"/>
         <v>0.60243407707910746</v>
       </c>
@@ -6716,7 +6713,7 @@
       <c r="F22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="67">
         <f t="shared" si="0"/>
         <v>0.36644364384971695</v>
       </c>
@@ -6742,7 +6739,7 @@
       <c r="F23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="67">
         <f t="shared" si="0"/>
         <v>0.54501385041551242</v>
       </c>
@@ -6768,7 +6765,7 @@
       <c r="F24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="67">
         <f t="shared" si="0"/>
         <v>0.4105827193569993</v>
       </c>
@@ -6794,7 +6791,7 @@
       <c r="F25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="68">
+      <c r="G25" s="67">
         <f t="shared" si="0"/>
         <v>0.66628308400460301</v>
       </c>
@@ -6812,9 +6809,7 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6849,19 +6844,19 @@
       <c r="E1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6889,7 +6884,7 @@
       <c r="M2" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="N2" s="66"/>
+      <c r="N2" s="65"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6934,10 +6929,10 @@
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="M4" s="69" t="s">
+      <c r="M4" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6981,7 +6976,7 @@
       <c r="E6" s="8">
         <v>10283</v>
       </c>
-      <c r="G6" s="70"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="8"/>
@@ -7005,7 +7000,7 @@
       <c r="E7" s="8">
         <v>15332</v>
       </c>
-      <c r="G7" s="70"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
@@ -7035,7 +7030,7 @@
       <c r="M8" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="N8" s="71" t="s">
+      <c r="N8" s="70" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7082,19 +7077,19 @@
       <c r="I10" s="2"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="M10" s="69" t="s">
+      <c r="M10" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="N10" s="69" t="s">
+      <c r="N10" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="O10" s="69" t="s">
+      <c r="O10" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="P10" s="69" t="s">
+      <c r="P10" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="Q10" s="69" t="s">
+      <c r="Q10" s="68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7251,10 +7246,10 @@
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M17" s="69" t="s">
+      <c r="M17" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="N17" s="69" t="s">
+      <c r="N17" s="68" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7289,7 +7284,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -7403,7 +7398,7 @@
         <v>OUTLIER</v>
       </c>
       <c r="G4" s="55" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C4&gt;95,IF(B4="M","Male achiever","Female achiever"),"None")</f>
         <v>Female achiever</v>
       </c>
     </row>
@@ -7744,7 +7739,9 @@
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7870,7 +7867,10 @@
       <c r="E5" s="8">
         <v>3072</v>
       </c>
-      <c r="H5" s="48"/>
+      <c r="H5" s="48">
+        <f>SUMIF(A2:A70,H2,D2:D70)</f>
+        <v>620</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -7934,9 +7934,18 @@
       <c r="G8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="48"/>
+      <c r="H8" s="48">
+        <f>SUMIFS(D$2:D$70,$C$2:$C$70,$G8,$A$2:$A$70,$H$2)</f>
+        <v>166</v>
+      </c>
+      <c r="I8" s="48">
+        <f t="shared" ref="I8:J10" si="0">SUMIFS(E$2:E$70,$C$2:$C$70,$G8,$A$2:$A$70,$H$2)</f>
+        <v>10015</v>
+      </c>
+      <c r="J8" s="48">
+        <f>COUNTIFS($C$2:$C$70,$G8,$A$2:$A$70,$H$2)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -7957,9 +7966,18 @@
       <c r="G9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="48"/>
+      <c r="H9" s="48">
+        <f t="shared" ref="H9:H10" si="1">SUMIFS(D$2:D$70,$C$2:$C$70,$G9,$A$2:$A$70,$H$2)</f>
+        <v>372</v>
+      </c>
+      <c r="I9" s="48">
+        <f t="shared" si="0"/>
+        <v>42628</v>
+      </c>
+      <c r="J9" s="48">
+        <f t="shared" ref="J9:J10" si="2">COUNTIFS($C$2:$C$70,$G9,$A$2:$A$70,$H$2)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -7980,9 +7998,18 @@
       <c r="G10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="48"/>
+      <c r="H10" s="48">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="I10" s="48">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="J10" s="48">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -14903,7 +14930,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" style="63" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="62" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
@@ -14913,7 +14940,7 @@
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>204</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -14939,7 +14966,7 @@
       <c r="F2" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -14957,7 +14984,7 @@
       <c r="F3" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="60"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -14989,7 +15016,7 @@
       <c r="F5" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
